--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/12oceanbetDataDuplicateGamesList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/12oceanbetDataDuplicateGamesList.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="brokenIMG" r:id="rId3" sheetId="1"/>
+    <sheet name="CopyGames" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>1  This game has duplicate Please check it :  Name =  Football</t>
   </si>
@@ -107,7 +107,7 @@
     <t>31  This game has duplicate Please check it :  Name =  Jackpot Fortunes</t>
   </si>
   <si>
-    <t>32  This game has duplicate Please check it :  Name =  Jacks or Better</t>
+    <t>32  This game has duplicate Please check it :  Name =  Joker Poker</t>
   </si>
   <si>
     <t>33  This game has duplicate Please check it :  Name =  Joker Poker</t>
@@ -116,34 +116,31 @@
     <t>34  This game has duplicate Please check it :  Name =  Joker Poker</t>
   </si>
   <si>
-    <t>35  This game has duplicate Please check it :  Name =  Joker Poker</t>
-  </si>
-  <si>
-    <t>36  This game has duplicate Please check it :  Name =  Lucky Clover</t>
-  </si>
-  <si>
-    <t>37  This game has duplicate Please check it :  Name =  MegaBoy</t>
-  </si>
-  <si>
-    <t>38  This game has duplicate Please check it :  Name =  Power Strike Super Spin</t>
-  </si>
-  <si>
-    <t>39  This game has duplicate Please check it :  Name =  Pyramid Pays</t>
-  </si>
-  <si>
-    <t>40  This game has duplicate Please check it :  Name =  Red Dog</t>
-  </si>
-  <si>
-    <t>41  This game has duplicate Please check it :  Name =  Stampede</t>
-  </si>
-  <si>
-    <t>42  This game has duplicate Please check it :  Name =  Starstruck</t>
-  </si>
-  <si>
-    <t>43  This game has duplicate Please check it :  Name =  Super Reel - Spin It Hot</t>
-  </si>
-  <si>
-    <t>44  This game has duplicate Please check it :  Name =  Tomahawk</t>
+    <t>35  This game has duplicate Please check it :  Name =  Lucky Clover</t>
+  </si>
+  <si>
+    <t>36  This game has duplicate Please check it :  Name =  MegaBoy</t>
+  </si>
+  <si>
+    <t>37  This game has duplicate Please check it :  Name =  Power Strike Super Spin</t>
+  </si>
+  <si>
+    <t>38  This game has duplicate Please check it :  Name =  Pyramid Pays</t>
+  </si>
+  <si>
+    <t>39  This game has duplicate Please check it :  Name =  Red Dog</t>
+  </si>
+  <si>
+    <t>40  This game has duplicate Please check it :  Name =  Stampede</t>
+  </si>
+  <si>
+    <t>41  This game has duplicate Please check it :  Name =  Starstruck</t>
+  </si>
+  <si>
+    <t>42  This game has duplicate Please check it :  Name =  Super Reel - Spin It Hot</t>
+  </si>
+  <si>
+    <t>43  This game has duplicate Please check it :  Name =  Tomahawk</t>
   </si>
 </sst>
 </file>
@@ -188,7 +185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:A43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -412,11 +409,6 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
